--- a/src/test/java/Resources/PCOSExcelOutput/IngredientsDataInput.xlsx
+++ b/src/test/java/Resources/PCOSExcelOutput/IngredientsDataInput.xlsx
@@ -5,16 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Testing\Saritha\RecepeScrapping\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Testing\Saritha\RecepeScrapping_TarlaDalal\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4E6C3D-8878-4F7B-A039-340F4B33034E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B340BBC-45F4-4146-9E13-A0F11C248137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ToEliminate" sheetId="1" r:id="rId1"/>
     <sheet name="ToAdd" sheetId="2" r:id="rId2"/>
+    <sheet name="Allergies" sheetId="3" r:id="rId3"/>
+    <sheet name="Nut_Allergies" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,53 +28,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
-  <si>
-    <t>Cakes</t>
-  </si>
-  <si>
-    <t>Pastries</t>
-  </si>
-  <si>
-    <t>White bread</t>
-  </si>
-  <si>
-    <t>Fried food</t>
-  </si>
-  <si>
-    <t>Pizza</t>
-  </si>
-  <si>
-    <t>Burger</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
   <si>
     <t>Soy products</t>
   </si>
   <si>
-    <t>Gluten</t>
-  </si>
-  <si>
     <t>Pasta</t>
   </si>
   <si>
     <t>White rice</t>
   </si>
   <si>
-    <t>Doughnuts</t>
-  </si>
-  <si>
-    <t>Fries</t>
-  </si>
-  <si>
-    <t>Coffee</t>
-  </si>
-  <si>
-    <t>Ghee</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> soybean oil</t>
-  </si>
-  <si>
     <t>safflower oil</t>
   </si>
   <si>
@@ -85,21 +51,6 @@
     <t>canola oil</t>
   </si>
   <si>
-    <t xml:space="preserve"> vegetable oil </t>
-  </si>
-  <si>
-    <t>Butter</t>
-  </si>
-  <si>
-    <t>Milk</t>
-  </si>
-  <si>
-    <t>Curd</t>
-  </si>
-  <si>
-    <t>Yogurt</t>
-  </si>
-  <si>
     <t>sweets</t>
   </si>
   <si>
@@ -124,48 +75,6 @@
     <t>pork</t>
   </si>
   <si>
-    <t>Ham</t>
-  </si>
-  <si>
-    <t>Sausage</t>
-  </si>
-  <si>
-    <t>Pepperoni</t>
-  </si>
-  <si>
-    <t>Beef jerky</t>
-  </si>
-  <si>
-    <t>Pepsi</t>
-  </si>
-  <si>
-    <t>Cola</t>
-  </si>
-  <si>
-    <t>Carrots</t>
-  </si>
-  <si>
-    <t>Brocolli</t>
-  </si>
-  <si>
-    <t>Beetroot</t>
-  </si>
-  <si>
-    <t>Cauliflower</t>
-  </si>
-  <si>
-    <t>Bitter gourd</t>
-  </si>
-  <si>
-    <t>Eggplant</t>
-  </si>
-  <si>
-    <t>Potatoes</t>
-  </si>
-  <si>
-    <t>Brussels</t>
-  </si>
-  <si>
     <t>chickpeas</t>
   </si>
   <si>
@@ -184,52 +93,220 @@
     <t>peanuts</t>
   </si>
   <si>
-    <t>Guava</t>
-  </si>
-  <si>
-    <t>Raspberries</t>
-  </si>
-  <si>
-    <t>Blackberries</t>
-  </si>
-  <si>
-    <t>Pear</t>
-  </si>
-  <si>
-    <t>Kiwifruit</t>
-  </si>
-  <si>
-    <t>Avocado</t>
-  </si>
-  <si>
-    <t>Blueberries</t>
-  </si>
-  <si>
-    <t>Oranges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pomegranate </t>
-  </si>
-  <si>
-    <t>Mandarins</t>
-  </si>
-  <si>
-    <t>Strawberries</t>
-  </si>
-  <si>
-    <t>Banana</t>
-  </si>
-  <si>
-    <t>Apricot</t>
-  </si>
-  <si>
-    <t>Cherries</t>
-  </si>
-  <si>
-    <t>Mango</t>
-  </si>
-  <si>
-    <t>Oats</t>
+    <t>almond</t>
+  </si>
+  <si>
+    <t>hazelnut</t>
+  </si>
+  <si>
+    <t>pecan</t>
+  </si>
+  <si>
+    <t>cashew</t>
+  </si>
+  <si>
+    <t>pistachio</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>soy</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>sesame</t>
+  </si>
+  <si>
+    <t>seafood</t>
+  </si>
+  <si>
+    <t>walnuts</t>
+  </si>
+  <si>
+    <t>wheat</t>
+  </si>
+  <si>
+    <t>shellfish</t>
+  </si>
+  <si>
+    <t>shrimp</t>
+  </si>
+  <si>
+    <t>crayfish</t>
+  </si>
+  <si>
+    <t>lobster</t>
+  </si>
+  <si>
+    <t>gluten free</t>
+  </si>
+  <si>
+    <t>fried food</t>
+  </si>
+  <si>
+    <t>white bread</t>
+  </si>
+  <si>
+    <t>pizza</t>
+  </si>
+  <si>
+    <t>burger</t>
+  </si>
+  <si>
+    <t>cola</t>
+  </si>
+  <si>
+    <t>pepsi</t>
+  </si>
+  <si>
+    <t>sausage</t>
+  </si>
+  <si>
+    <t>pepperoni</t>
+  </si>
+  <si>
+    <t>beef jerky</t>
+  </si>
+  <si>
+    <t>ghee</t>
+  </si>
+  <si>
+    <t>gluten</t>
+  </si>
+  <si>
+    <t>french fries</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vegetable oil </t>
+  </si>
+  <si>
+    <t>soybean oil</t>
+  </si>
+  <si>
+    <t>curd</t>
+  </si>
+  <si>
+    <t>yogurt</t>
+  </si>
+  <si>
+    <t>ham</t>
+  </si>
+  <si>
+    <t>pastries</t>
+  </si>
+  <si>
+    <t>potato chips</t>
+  </si>
+  <si>
+    <t>butter</t>
+  </si>
+  <si>
+    <t>hamburgers</t>
+  </si>
+  <si>
+    <t>steaks</t>
+  </si>
+  <si>
+    <t>roast beef</t>
+  </si>
+  <si>
+    <t>corn chips</t>
+  </si>
+  <si>
+    <t>doughnuts</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>fried chicken</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>margarine</t>
+  </si>
+  <si>
+    <t>hot dogs</t>
+  </si>
+  <si>
+    <t>beetroot</t>
+  </si>
+  <si>
+    <t>brocolli</t>
+  </si>
+  <si>
+    <t>carrots</t>
+  </si>
+  <si>
+    <t>mango</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>apricot</t>
+  </si>
+  <si>
+    <t>cherries</t>
+  </si>
+  <si>
+    <t>mandarins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pomegranate </t>
+  </si>
+  <si>
+    <t>oranges</t>
+  </si>
+  <si>
+    <t>blueberries</t>
+  </si>
+  <si>
+    <t>avocado</t>
+  </si>
+  <si>
+    <t>kiwifruit</t>
+  </si>
+  <si>
+    <t>pear</t>
+  </si>
+  <si>
+    <t>blackberries</t>
+  </si>
+  <si>
+    <t>raspberries</t>
+  </si>
+  <si>
+    <t>oats</t>
+  </si>
+  <si>
+    <t>cauliflower</t>
+  </si>
+  <si>
+    <t>bitter gourd</t>
+  </si>
+  <si>
+    <t>eggplant</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>brussels</t>
+  </si>
+  <si>
+    <t>strawberries</t>
+  </si>
+  <si>
+    <t>guava</t>
   </si>
 </sst>
 </file>
@@ -550,203 +627,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -759,7 +884,7 @@
   <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -769,152 +894,275 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE47FE94-8038-4D62-81CD-423FFABD19A9}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA568F9D-5957-4199-96FA-CB486AC1D0BC}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
